--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H2">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I2">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J2">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.504026333333333</v>
+        <v>0.7954183333333334</v>
       </c>
       <c r="N2">
-        <v>4.512079</v>
+        <v>2.386255</v>
       </c>
       <c r="O2">
-        <v>0.01711326496583577</v>
+        <v>0.01162940141126712</v>
       </c>
       <c r="P2">
-        <v>0.01856885401056314</v>
+        <v>0.01185663134026474</v>
       </c>
       <c r="Q2">
-        <v>3.320066438911445</v>
+        <v>1.524834179063889</v>
       </c>
       <c r="R2">
-        <v>29.880597950203</v>
+        <v>13.723507611575</v>
       </c>
       <c r="S2">
-        <v>8.348976307118642E-05</v>
+        <v>4.739914658706708E-05</v>
       </c>
       <c r="T2">
-        <v>9.14541905432444E-05</v>
+        <v>4.936960732459088E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H3">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I3">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J3">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>189.91792</v>
       </c>
       <c r="O3">
-        <v>0.7203144463384618</v>
+        <v>0.9255640016984422</v>
       </c>
       <c r="P3">
-        <v>0.7815816457269052</v>
+        <v>0.9436488398557115</v>
       </c>
       <c r="Q3">
-        <v>139.7449185486045</v>
+        <v>121.3589225094222</v>
       </c>
       <c r="R3">
-        <v>1257.70426693744</v>
+        <v>1092.2303025848</v>
       </c>
       <c r="S3">
-        <v>0.003514167669442963</v>
+        <v>0.003772416330019582</v>
       </c>
       <c r="T3">
-        <v>0.00384939839113115</v>
+        <v>0.003929241901767859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H4">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I4">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J4">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3729686666666667</v>
+        <v>0.1458433333333333</v>
       </c>
       <c r="N4">
-        <v>1.118906</v>
+        <v>0.43753</v>
       </c>
       <c r="O4">
-        <v>0.004243749909933633</v>
+        <v>0.002132300194016023</v>
       </c>
       <c r="P4">
-        <v>0.004604707090798534</v>
+        <v>0.002173963767621662</v>
       </c>
       <c r="Q4">
-        <v>0.8233105534935558</v>
+        <v>0.2795848299388889</v>
       </c>
       <c r="R4">
-        <v>7.409794981442</v>
+        <v>2.51626346945</v>
       </c>
       <c r="S4">
-        <v>2.070380346596966E-05</v>
+        <v>8.690835055867649E-06</v>
       </c>
       <c r="T4">
-        <v>2.267882333708683E-05</v>
+        <v>9.052127409991072E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H5">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I5">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J5">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.6679545</v>
+        <v>3.9324545</v>
       </c>
       <c r="N5">
-        <v>41.335909</v>
+        <v>7.864909000000001</v>
       </c>
       <c r="O5">
-        <v>0.2351662160571686</v>
+        <v>0.05749439005308789</v>
       </c>
       <c r="P5">
-        <v>0.1701123716173682</v>
+        <v>0.03907852536201294</v>
       </c>
       <c r="Q5">
-        <v>45.62352438625218</v>
+        <v>7.538600479680834</v>
       </c>
       <c r="R5">
-        <v>273.741146317513</v>
+        <v>45.231602878085</v>
       </c>
       <c r="S5">
-        <v>0.001147295486872722</v>
+        <v>0.0002343357947400486</v>
       </c>
       <c r="T5">
-        <v>0.0008378271076291465</v>
+        <v>0.0001627183469384625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H6">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I6">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J6">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.035657333333333</v>
+        <v>0.2174966666666667</v>
       </c>
       <c r="N6">
-        <v>6.106972</v>
+        <v>0.65249</v>
       </c>
       <c r="O6">
-        <v>0.02316232272860028</v>
+        <v>0.003179906643186787</v>
       </c>
       <c r="P6">
-        <v>0.0251324215543648</v>
+        <v>0.00324203967438909</v>
       </c>
       <c r="Q6">
-        <v>4.493616530333779</v>
+        <v>0.4169458224277778</v>
       </c>
       <c r="R6">
-        <v>40.44254877300401</v>
+        <v>3.75251240185</v>
       </c>
       <c r="S6">
-        <v>0.0001130010457180314</v>
+        <v>1.296067233241854E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001237806742590851</v>
+        <v>1.349946886783781E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1303.417145</v>
       </c>
       <c r="I7">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J7">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.504026333333333</v>
+        <v>0.7954183333333334</v>
       </c>
       <c r="N7">
-        <v>4.512079</v>
+        <v>2.386255</v>
       </c>
       <c r="O7">
-        <v>0.01711326496583577</v>
+        <v>0.01162940141126712</v>
       </c>
       <c r="P7">
-        <v>0.01856885401056314</v>
+        <v>0.01185663134026474</v>
       </c>
       <c r="Q7">
-        <v>653.4579031327172</v>
+        <v>345.5872977046639</v>
       </c>
       <c r="R7">
-        <v>5881.121128194454</v>
+        <v>3110.285679341975</v>
       </c>
       <c r="S7">
-        <v>0.01643251619007737</v>
+        <v>0.01074250774768699</v>
       </c>
       <c r="T7">
-        <v>0.01800008062630293</v>
+        <v>0.01118909152109902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1303.417145</v>
       </c>
       <c r="I8">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J8">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>189.91792</v>
       </c>
       <c r="O8">
-        <v>0.7203144463384618</v>
+        <v>0.9255640016984422</v>
       </c>
       <c r="P8">
-        <v>0.7815816457269052</v>
+        <v>0.9436488398557115</v>
       </c>
       <c r="Q8">
         <v>27504.69700785982</v>
@@ -948,10 +948,10 @@
         <v>247542.2730707384</v>
       </c>
       <c r="S8">
-        <v>0.6916610491939124</v>
+        <v>0.8549776645935145</v>
       </c>
       <c r="T8">
-        <v>0.7576414048556662</v>
+        <v>0.8905204969195504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1303.417145</v>
       </c>
       <c r="I9">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J9">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3729686666666667</v>
+        <v>0.1458433333333333</v>
       </c>
       <c r="N9">
-        <v>1.118906</v>
+        <v>0.43753</v>
       </c>
       <c r="O9">
-        <v>0.004243749909933633</v>
+        <v>0.002132300194016023</v>
       </c>
       <c r="P9">
-        <v>0.004604707090798534</v>
+        <v>0.002173963767621662</v>
       </c>
       <c r="Q9">
-        <v>162.0445848937078</v>
+        <v>63.36490038353888</v>
       </c>
       <c r="R9">
-        <v>1458.40126404337</v>
+        <v>570.2841034518499</v>
       </c>
       <c r="S9">
-        <v>0.004074937730517288</v>
+        <v>0.001969684469952074</v>
       </c>
       <c r="T9">
-        <v>0.004463662585086411</v>
+        <v>0.002051567503567914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1303.417145</v>
       </c>
       <c r="I10">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J10">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.6679545</v>
+        <v>3.9324545</v>
       </c>
       <c r="N10">
-        <v>41.335909</v>
+        <v>7.864909000000001</v>
       </c>
       <c r="O10">
-        <v>0.2351662160571686</v>
+        <v>0.05749439005308789</v>
       </c>
       <c r="P10">
-        <v>0.1701123716173682</v>
+        <v>0.03907852536201294</v>
       </c>
       <c r="Q10">
-        <v>8979.655415793301</v>
+        <v>1708.542872410801</v>
       </c>
       <c r="R10">
-        <v>53877.9324947598</v>
+        <v>10251.25723446481</v>
       </c>
       <c r="S10">
-        <v>0.2258115362809688</v>
+        <v>0.05310969230070955</v>
       </c>
       <c r="T10">
-        <v>0.1649017436887787</v>
+        <v>0.0368783665643929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1303.417145</v>
       </c>
       <c r="I11">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J11">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.035657333333333</v>
+        <v>0.2174966666666667</v>
       </c>
       <c r="N11">
-        <v>6.106972</v>
+        <v>0.65249</v>
       </c>
       <c r="O11">
-        <v>0.02316232272860028</v>
+        <v>0.003179906643186787</v>
       </c>
       <c r="P11">
-        <v>0.0251324215543648</v>
+        <v>0.00324203967438909</v>
       </c>
       <c r="Q11">
-        <v>884.4368898705488</v>
+        <v>94.49629477122778</v>
       </c>
       <c r="R11">
-        <v>7959.93200883494</v>
+        <v>850.4666529410499</v>
       </c>
       <c r="S11">
-        <v>0.02224094841033351</v>
+        <v>0.00293739725230048</v>
       </c>
       <c r="T11">
-        <v>0.02436260277858044</v>
+        <v>0.003059509703112995</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H12">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I12">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J12">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.504026333333333</v>
+        <v>0.7954183333333334</v>
       </c>
       <c r="N12">
-        <v>4.512079</v>
+        <v>2.386255</v>
       </c>
       <c r="O12">
-        <v>0.01711326496583577</v>
+        <v>0.01162940141126712</v>
       </c>
       <c r="P12">
-        <v>0.01856885401056314</v>
+        <v>0.01185663134026474</v>
       </c>
       <c r="Q12">
-        <v>2.887417722522667</v>
+        <v>1.367342144482222</v>
       </c>
       <c r="R12">
-        <v>25.986759502704</v>
+        <v>12.30607930034</v>
       </c>
       <c r="S12">
-        <v>7.260993898061934E-05</v>
+        <v>4.2503540142821E-05</v>
       </c>
       <c r="T12">
-        <v>7.953649586003725E-05</v>
+        <v>4.427048244215867E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H13">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I13">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J13">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>189.91792</v>
       </c>
       <c r="O13">
-        <v>0.7203144463384618</v>
+        <v>0.9255640016984422</v>
       </c>
       <c r="P13">
-        <v>0.7815816457269052</v>
+        <v>0.9436488398557115</v>
       </c>
       <c r="Q13">
-        <v>121.5343011575467</v>
+        <v>108.8244030953955</v>
       </c>
       <c r="R13">
-        <v>1093.80871041792</v>
+        <v>979.4196278585598</v>
       </c>
       <c r="S13">
-        <v>0.003056224986868835</v>
+        <v>0.003382783456320077</v>
       </c>
       <c r="T13">
-        <v>0.003347770696795621</v>
+        <v>0.003523411346570796</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H14">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I14">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J14">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3729686666666667</v>
+        <v>0.1458433333333333</v>
       </c>
       <c r="N14">
-        <v>1.118906</v>
+        <v>0.43753</v>
       </c>
       <c r="O14">
-        <v>0.004243749909933633</v>
+        <v>0.002132300194016023</v>
       </c>
       <c r="P14">
-        <v>0.004604707090798534</v>
+        <v>0.002173963767621662</v>
       </c>
       <c r="Q14">
-        <v>0.7160222625173334</v>
+        <v>0.2507079957822222</v>
       </c>
       <c r="R14">
-        <v>6.444200362656001</v>
+        <v>2.25637196204</v>
       </c>
       <c r="S14">
-        <v>1.800582312168047E-05</v>
+        <v>7.793204799440324E-06</v>
       </c>
       <c r="T14">
-        <v>1.972347169381805E-05</v>
+        <v>8.117181182613626E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H15">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I15">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J15">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.6679545</v>
+        <v>3.9324545</v>
       </c>
       <c r="N15">
-        <v>41.335909</v>
+        <v>7.864909000000001</v>
       </c>
       <c r="O15">
-        <v>0.2351662160571686</v>
+        <v>0.05749439005308789</v>
       </c>
       <c r="P15">
-        <v>0.1701123716173682</v>
+        <v>0.03907852536201294</v>
       </c>
       <c r="Q15">
-        <v>39.678173705464</v>
+        <v>6.759978421135334</v>
       </c>
       <c r="R15">
-        <v>238.069042232784</v>
+        <v>40.55987052681201</v>
       </c>
       <c r="S15">
-        <v>0.000997787659590546</v>
+        <v>0.0002101324934266041</v>
       </c>
       <c r="T15">
-        <v>0.0007286471170051272</v>
+        <v>0.0001459120319469947</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H16">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I16">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J16">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2.035657333333333</v>
+        <v>0.2174966666666667</v>
       </c>
       <c r="N16">
-        <v>6.106972</v>
+        <v>0.65249</v>
       </c>
       <c r="O16">
-        <v>0.02316232272860028</v>
+        <v>0.003179906643186787</v>
       </c>
       <c r="P16">
-        <v>0.0251324215543648</v>
+        <v>0.00324203967438909</v>
       </c>
       <c r="Q16">
-        <v>3.908038663274667</v>
+        <v>0.3738816999244444</v>
       </c>
       <c r="R16">
-        <v>35.172347969472</v>
+        <v>3.36493529932</v>
       </c>
       <c r="S16">
-        <v>9.827550986504246E-05</v>
+        <v>1.162203323106259E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001076504097546527</v>
+        <v>1.210518033013409E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H17">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I17">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J17">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.504026333333333</v>
+        <v>0.7954183333333334</v>
       </c>
       <c r="N17">
-        <v>4.512079</v>
+        <v>2.386255</v>
       </c>
       <c r="O17">
-        <v>0.01711326496583577</v>
+        <v>0.01162940141126712</v>
       </c>
       <c r="P17">
-        <v>0.01856885401056314</v>
+        <v>0.01185663134026474</v>
       </c>
       <c r="Q17">
-        <v>19.26764067661766</v>
+        <v>23.74122484161667</v>
       </c>
       <c r="R17">
-        <v>115.605844059706</v>
+        <v>142.4473490497</v>
       </c>
       <c r="S17">
-        <v>0.0004845236637972201</v>
+        <v>0.0007379909316534002</v>
       </c>
       <c r="T17">
-        <v>0.0003538295621850875</v>
+        <v>0.0005124469549666042</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H18">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I18">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J18">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>189.91792</v>
       </c>
       <c r="O18">
-        <v>0.7203144463384618</v>
+        <v>0.9255640016984422</v>
       </c>
       <c r="P18">
-        <v>0.7815816457269052</v>
+        <v>0.9436488398557115</v>
       </c>
       <c r="Q18">
-        <v>810.9942757231465</v>
+        <v>1889.523139887467</v>
       </c>
       <c r="R18">
-        <v>4865.965654338879</v>
+        <v>11337.1388393248</v>
       </c>
       <c r="S18">
-        <v>0.02039408583474433</v>
+        <v>0.05873542547568298</v>
       </c>
       <c r="T18">
-        <v>0.01489304032236636</v>
+        <v>0.0407847693551574</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H19">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I19">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J19">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.3729686666666667</v>
+        <v>0.1458433333333333</v>
       </c>
       <c r="N19">
-        <v>1.118906</v>
+        <v>0.43753</v>
       </c>
       <c r="O19">
-        <v>0.004243749909933633</v>
+        <v>0.002132300194016023</v>
       </c>
       <c r="P19">
-        <v>0.004604707090798534</v>
+        <v>0.002173963767621662</v>
       </c>
       <c r="Q19">
-        <v>4.777992308847333</v>
+        <v>4.353054516366667</v>
       </c>
       <c r="R19">
-        <v>28.667953853084</v>
+        <v>26.1183270982</v>
       </c>
       <c r="S19">
-        <v>0.0001201522479027279</v>
+        <v>0.0001353137750685958</v>
       </c>
       <c r="T19">
-        <v>8.774270576961696E-05</v>
+        <v>9.395932798738538E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H20">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I20">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J20">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.6679545</v>
+        <v>3.9324545</v>
       </c>
       <c r="N20">
-        <v>41.335909</v>
+        <v>7.864909000000001</v>
       </c>
       <c r="O20">
-        <v>0.2351662160571686</v>
+        <v>0.05749439005308789</v>
       </c>
       <c r="P20">
-        <v>0.1701123716173682</v>
+        <v>0.03907852536201294</v>
       </c>
       <c r="Q20">
-        <v>264.7711093888315</v>
+        <v>117.373817715115</v>
       </c>
       <c r="R20">
-        <v>1059.084437555326</v>
+        <v>469.4952708604601</v>
       </c>
       <c r="S20">
-        <v>0.00665820326120237</v>
+        <v>0.003648540193910046</v>
       </c>
       <c r="T20">
-        <v>0.003241491690192618</v>
+        <v>0.001688984902342558</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H21">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I21">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J21">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2.035657333333333</v>
+        <v>0.2174966666666667</v>
       </c>
       <c r="N21">
-        <v>6.106972</v>
+        <v>0.65249</v>
       </c>
       <c r="O21">
-        <v>0.02316232272860028</v>
+        <v>0.003179906643186787</v>
       </c>
       <c r="P21">
-        <v>0.0251324215543648</v>
+        <v>0.00324203967438909</v>
       </c>
       <c r="Q21">
-        <v>26.07820964973467</v>
+        <v>6.491725233433334</v>
       </c>
       <c r="R21">
-        <v>156.469257898408</v>
+        <v>38.95035140060001</v>
       </c>
       <c r="S21">
-        <v>0.0006557891491144187</v>
+        <v>0.0002017939000628713</v>
       </c>
       <c r="T21">
-        <v>0.0004788983590572302</v>
+        <v>0.0001401218703140107</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H22">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I22">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J22">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.504026333333333</v>
+        <v>0.7954183333333334</v>
       </c>
       <c r="N22">
-        <v>4.512079</v>
+        <v>2.386255</v>
       </c>
       <c r="O22">
-        <v>0.01711326496583577</v>
+        <v>0.01162940141126712</v>
       </c>
       <c r="P22">
-        <v>0.01856885401056314</v>
+        <v>0.01185663134026474</v>
       </c>
       <c r="Q22">
-        <v>1.595633067901889</v>
+        <v>1.898035976601667</v>
       </c>
       <c r="R22">
-        <v>14.360697611117</v>
+        <v>17.082323789415</v>
       </c>
       <c r="S22">
-        <v>4.012540990937451E-05</v>
+        <v>5.900004519684889E-05</v>
       </c>
       <c r="T22">
-        <v>4.395313567184107E-05</v>
+        <v>6.145277443236305E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H23">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I23">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J23">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>189.91792</v>
       </c>
       <c r="O23">
-        <v>0.7203144463384618</v>
+        <v>0.9255640016984422</v>
       </c>
       <c r="P23">
-        <v>0.7815816457269052</v>
+        <v>0.9436488398557115</v>
       </c>
       <c r="Q23">
-        <v>67.16179245512889</v>
+        <v>151.0614099337066</v>
       </c>
       <c r="R23">
-        <v>604.45613209616</v>
+        <v>1359.55268940336</v>
       </c>
       <c r="S23">
-        <v>0.001688918653493389</v>
+        <v>0.004695711842905109</v>
       </c>
       <c r="T23">
-        <v>0.00185003146094602</v>
+        <v>0.004890920332665021</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H24">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I24">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J24">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.3729686666666667</v>
+        <v>0.1458433333333333</v>
       </c>
       <c r="N24">
-        <v>1.118906</v>
+        <v>0.43753</v>
       </c>
       <c r="O24">
-        <v>0.004243749909933633</v>
+        <v>0.002132300194016023</v>
       </c>
       <c r="P24">
-        <v>0.004604707090798534</v>
+        <v>0.002173963767621662</v>
       </c>
       <c r="Q24">
-        <v>0.3956853178931112</v>
+        <v>0.3480129662766666</v>
       </c>
       <c r="R24">
-        <v>3.561167861038</v>
+        <v>3.13211669649</v>
       </c>
       <c r="S24">
-        <v>9.950304925968406E-06</v>
+        <v>1.081790914004467E-05</v>
       </c>
       <c r="T24">
-        <v>1.089950491160217E-05</v>
+        <v>1.126762747375775E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H25">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I25">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J25">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.6679545</v>
+        <v>3.9324545</v>
       </c>
       <c r="N25">
-        <v>41.335909</v>
+        <v>7.864909000000001</v>
       </c>
       <c r="O25">
-        <v>0.2351662160571686</v>
+        <v>0.05749439005308789</v>
       </c>
       <c r="P25">
-        <v>0.1701123716173682</v>
+        <v>0.03907852536201294</v>
       </c>
       <c r="Q25">
-        <v>21.92679138336783</v>
+        <v>9.3836661848995</v>
       </c>
       <c r="R25">
-        <v>131.560748300207</v>
+        <v>56.30199710939701</v>
       </c>
       <c r="S25">
-        <v>0.0005513933685341955</v>
+        <v>0.0002916892703016465</v>
       </c>
       <c r="T25">
-        <v>0.0004026620137625863</v>
+        <v>0.0002025435163920294</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H26">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I26">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J26">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>2.035657333333333</v>
+        <v>0.2174966666666667</v>
       </c>
       <c r="N26">
-        <v>6.106972</v>
+        <v>0.65249</v>
       </c>
       <c r="O26">
-        <v>0.02316232272860028</v>
+        <v>0.003179906643186787</v>
       </c>
       <c r="P26">
-        <v>0.0251324215543648</v>
+        <v>0.00324203967438909</v>
       </c>
       <c r="Q26">
-        <v>2.159644471639556</v>
+        <v>0.5189929384633333</v>
       </c>
       <c r="R26">
-        <v>19.436800244756</v>
+        <v>4.67093644617</v>
       </c>
       <c r="S26">
-        <v>5.430861356928207E-05</v>
+        <v>1.613278525995417E-05</v>
       </c>
       <c r="T26">
-        <v>5.948933271339766E-05</v>
+        <v>1.680345176411262E-05</v>
       </c>
     </row>
   </sheetData>
